--- a/Castro Vasquez Julieta 20212.xlsx
+++ b/Castro Vasquez Julieta 20212.xlsx
@@ -5056,7 +5056,7 @@
         <v>667</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5193,7 +5193,7 @@
         <v>671</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
